--- a/UST_Template.xlsx
+++ b/UST_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Directie\ETS\Finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vosslohcorporate-my.sharepoint.com/personal/christian_lehmer_vossloh_com/Documents/Git_Repos/GitSchulung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43218092-8326-47F7-ABA1-E9ACEE0BCAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{43218092-8326-47F7-ABA1-E9ACEE0BCAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C9F6E94-0057-4413-B961-0433B3320479}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{4B7B124E-CBB0-4A59-9685-3799C9199BC6}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{4B7B124E-CBB0-4A59-9685-3799C9199BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="UST" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>Steuertext</t>
   </si>
@@ -312,7 +312,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -376,12 +376,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -680,19 +676,19 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.73046875" customWidth="1"/>
-    <col min="6" max="6" width="23.3984375" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -727,7 +723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -757,7 +753,7 @@
       </c>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
@@ -783,7 +779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -809,7 +805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
@@ -835,7 +831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -861,7 +857,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
@@ -887,7 +883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -913,7 +909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -939,7 +935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
@@ -965,7 +961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
@@ -992,7 +988,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
@@ -1018,7 +1014,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1044,7 +1040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
@@ -1065,9 +1061,6 @@
       </c>
       <c r="I14" t="s">
         <v>10</v>
-      </c>
-      <c r="J14" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
